--- a/test/data/address.xlsx
+++ b/test/data/address.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hedongran/baidu/dataset-manager/test/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9873A148-380C-AB44-90A3-7EA7E7E13CDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="15080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="100">
-  <si>
-    <t>陕西省西安市未央区中央领郡</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <t>凤城九路79号</t>
   </si>
@@ -316,22 +319,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>address2</t>
+    <t>address1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>address1</t>
+    <t>ccc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,7 +346,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -405,7 +409,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,6 +417,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -429,7 +436,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="2" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -455,24 +468,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -495,7 +508,13 @@
     <xdr:ext cx="1187726" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="3" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -521,24 +540,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -561,7 +580,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="4" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -587,24 +612,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -627,7 +652,13 @@
     <xdr:ext cx="1187726" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="5" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -653,24 +684,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -693,7 +724,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="6" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -719,24 +756,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -759,7 +796,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="7" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -785,24 +828,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -825,7 +868,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="8" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -851,24 +900,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -891,7 +940,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="9" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -917,24 +972,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -957,7 +1012,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="10" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -983,24 +1044,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1023,7 +1084,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="11" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1049,24 +1116,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1089,7 +1156,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="12" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1115,24 +1188,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1155,7 +1228,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="13" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1181,24 +1260,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1221,7 +1300,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="14" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1247,24 +1332,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1287,7 +1372,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="15" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1313,24 +1404,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1353,7 +1444,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="16" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1379,24 +1476,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1419,7 +1516,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="17" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1445,24 +1548,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1485,7 +1588,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="18" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1511,24 +1620,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1551,7 +1660,13 @@
     <xdr:ext cx="1187726" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="19" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1577,24 +1692,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1617,7 +1732,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="20" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1643,24 +1764,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1683,7 +1804,13 @@
     <xdr:ext cx="1187726" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="21" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1709,24 +1836,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1749,7 +1876,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="22" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1775,24 +1908,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1815,7 +1948,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="23" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1841,24 +1980,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1881,7 +2020,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="24" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1907,24 +2052,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1947,7 +2092,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="25" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1973,24 +2124,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2013,7 +2164,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="26" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2039,24 +2196,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2079,7 +2236,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="27" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2105,24 +2268,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2145,7 +2308,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="28" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2171,24 +2340,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2211,7 +2380,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="29" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2237,24 +2412,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2277,7 +2452,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="30" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2303,24 +2484,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2343,7 +2524,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="31" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2369,24 +2556,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2409,7 +2596,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="32" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2435,24 +2628,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2475,7 +2668,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="33" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2501,24 +2700,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2541,7 +2740,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="66" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2567,24 +2772,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2607,7 +2812,13 @@
     <xdr:ext cx="1187726" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="67" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2633,24 +2844,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2673,7 +2884,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="68" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2699,24 +2916,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2739,7 +2956,13 @@
     <xdr:ext cx="1187726" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="69" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2765,24 +2988,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2805,7 +3028,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="70" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2831,24 +3060,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2871,7 +3100,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="71" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2897,24 +3132,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2937,7 +3172,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="72" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2963,24 +3204,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3003,7 +3244,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="73" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3029,24 +3276,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3069,7 +3316,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="74" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3095,24 +3348,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3135,7 +3388,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="75" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3161,24 +3420,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3201,7 +3460,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="76" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3227,24 +3492,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3267,7 +3532,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="77" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3293,24 +3564,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3333,7 +3604,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="78" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3359,24 +3636,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3399,7 +3676,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="79" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3425,24 +3708,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3465,7 +3748,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="80" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3491,24 +3780,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3531,7 +3820,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="81" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3557,24 +3852,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3597,7 +3892,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="82" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3623,24 +3924,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3663,7 +3964,13 @@
     <xdr:ext cx="1187726" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="83" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3689,24 +3996,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3729,7 +4036,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="84" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3755,24 +4068,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3795,7 +4108,13 @@
     <xdr:ext cx="1187726" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="85" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3821,24 +4140,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3861,7 +4180,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="86" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3887,24 +4212,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3927,7 +4252,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="87" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3953,24 +4284,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3993,7 +4324,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="88" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4019,24 +4356,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4059,7 +4396,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="89" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4085,24 +4428,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4125,7 +4468,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="90" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4151,24 +4500,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4191,7 +4540,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="91" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4217,24 +4572,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4257,7 +4612,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="92" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4283,24 +4644,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4323,7 +4684,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="93" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4349,24 +4716,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4389,7 +4756,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="94" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4415,24 +4788,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4455,7 +4828,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="95" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4481,24 +4860,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4521,7 +4900,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="96" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4547,24 +4932,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4587,7 +4972,13 @@
     <xdr:ext cx="1130576" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Picture 7" descr="rId1" hidden="1"/>
+        <xdr:cNvPr id="97" name="Picture 7" descr="rId1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4613,24 +5004,24 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4903,824 +5294,824 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="A534" sqref="A534:XFD534"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="49.83203125" customWidth="1"/>
+    <col min="1" max="1" width="49.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="1" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15">
-      <c r="A12" s="1" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15">
-      <c r="A13" s="1" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15">
-      <c r="A14" s="1" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15">
-      <c r="A15" s="1" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15">
-      <c r="A16" s="1" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
-      <c r="A17" s="1" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
-      <c r="A18" s="1" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="2" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
-      <c r="A20" s="1" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
-      <c r="A21" s="1" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
-      <c r="A22" s="1" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
-      <c r="A23" s="1" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="1" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="1" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="1" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="1" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="1" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="1" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
-      <c r="A30" s="1" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
-      <c r="A31" s="1" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="1" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="1" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="1" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="1" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="1" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16">
+      <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15">
-      <c r="A43" s="1" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16">
+      <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15">
-      <c r="A44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15">
-      <c r="A45" s="1" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16">
+      <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15">
-      <c r="A46" s="1" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16">
+      <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15">
-      <c r="A47" s="1" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16">
+      <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15">
-      <c r="A48" s="1" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16">
+      <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15">
-      <c r="A49" s="1" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16">
+      <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15">
-      <c r="A50" s="1" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16">
+      <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15">
-      <c r="A51" s="1" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15">
-      <c r="A52" s="1" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16">
+      <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15">
-      <c r="A53" s="1" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15">
-      <c r="A54" s="1" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16">
+      <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15">
-      <c r="A55" s="1" t="s">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16">
+      <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15">
-      <c r="A56" s="1" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16">
+      <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15">
-      <c r="A57" s="1" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16">
+      <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15">
-      <c r="A58" s="1" t="s">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16">
+      <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15">
-      <c r="A59" s="1" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16">
+      <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15">
-      <c r="A60" s="1" t="s">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16">
+      <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15">
-      <c r="A61" s="1" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16">
+      <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15">
-      <c r="A62" s="1" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16">
+      <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15">
-      <c r="A63" s="1" t="s">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16">
+      <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15">
-      <c r="A64" s="1" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16">
+      <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15">
-      <c r="A65" s="1" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="16">
+      <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15">
-      <c r="A66" s="2" t="s">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16">
+      <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15">
-      <c r="A67" s="1" t="s">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16">
+      <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15">
-      <c r="A68" s="1" t="s">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16">
+      <c r="A69" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15">
-      <c r="A69" s="1" t="s">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16">
+      <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15">
-      <c r="A70" s="1" t="s">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="16">
+      <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15">
-      <c r="A71" s="1" t="s">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16">
+      <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15">
-      <c r="A72" s="1" t="s">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16">
+      <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15">
-      <c r="A73" s="1" t="s">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16">
+      <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15">
-      <c r="A74" s="1" t="s">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16">
+      <c r="A75" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15">
-      <c r="A75" s="3" t="s">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16">
+      <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15">
-      <c r="A76" s="1" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16">
+      <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15">
-      <c r="A77" s="1" t="s">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16">
+      <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15">
-      <c r="A78" s="1" t="s">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="16">
+      <c r="A79" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15">
-      <c r="A79" s="1" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="16">
+      <c r="A80" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15">
-      <c r="A80" s="1" t="s">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16">
+      <c r="A81" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15">
-      <c r="A81" s="1" t="s">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="16">
+      <c r="A82" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15">
-      <c r="A82" s="1" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="16">
+      <c r="A83" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15">
-      <c r="A83" s="1" t="s">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="16">
+      <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15">
-      <c r="A84" s="1" t="s">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="16">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="16">
+      <c r="A86" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15">
-      <c r="A85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15">
-      <c r="A86" s="1" t="s">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="16">
+      <c r="A87" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15">
-      <c r="A87" s="1" t="s">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16">
+      <c r="A88" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15">
-      <c r="A88" s="1" t="s">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="16">
+      <c r="A89" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15">
-      <c r="A89" s="1" t="s">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="16">
+      <c r="A90" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15">
-      <c r="A90" s="1" t="s">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="16">
+      <c r="A91" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15">
-      <c r="A91" s="1" t="s">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="16">
+      <c r="A92" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="16">
+      <c r="A93" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="15">
-      <c r="A92" s="1" t="s">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16">
+      <c r="A94" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15">
-      <c r="A93" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15">
-      <c r="A94" s="1" t="s">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16">
+      <c r="A95" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15">
-      <c r="A95" s="1" t="s">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16">
+      <c r="A96" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15">
-      <c r="A96" s="1" t="s">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16">
+      <c r="A97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15">
-      <c r="A97" s="1" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16">
+      <c r="A98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15">
-      <c r="A98" s="1" t="s">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16">
+      <c r="A99" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15">
-      <c r="A99" s="1" t="s">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="16">
+      <c r="A100" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15">
-      <c r="A100" s="1" t="s">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16">
+      <c r="A101" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15">
-      <c r="A101" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>96</v>
+      <c r="B101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
